--- a/src/test/java/resources/Baskent.xlsx
+++ b/src/test/java/resources/Baskent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Ulke</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>250000</t>
+  </si>
+  <si>
+    <t>300000</t>
   </si>
 </sst>
 </file>
@@ -400,6 +403,9 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
